--- a/data/Providence Portland Medical Center.xlsx
+++ b/data/Providence Portland Medical Center.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bschendt\Desktop\ChargemasterAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23918A0B-29A9-47D6-8DC1-067660D0D9B2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3B4B6B-20C8-4905-9719-B2DCE1534F7A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8128,10 +8128,10 @@
     <t>Diatrizoate Meglumine &amp; Sodium Oral Soln 66-10%</t>
   </si>
   <si>
-    <t>Descripton</t>
-  </si>
-  <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -8526,7 +8526,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A813" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A824" sqref="A824"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8537,10 +8537,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2700</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2699</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2700</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -72856,23 +72856,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Move_x0020_File xmlns="fe09231f-29e9-4fcc-8d52-31ededd95bb0">false</Move_x0020_File>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7F2328C706D624B92EA7213AFA4F9CB" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8913bdc2919bbc5b7698308243c0837a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fe09231f-29e9-4fcc-8d52-31ededd95bb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c96370e56e71cec85ffab3f9d560569" ns2:_="">
     <xsd:import namespace="fe09231f-29e9-4fcc-8d52-31ededd95bb0"/>
@@ -72998,31 +72981,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1122C776-05D7-4941-A125-0B9D74F352A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="fe09231f-29e9-4fcc-8d52-31ededd95bb0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28AFA5F5-9BF9-4C87-A4BC-A6BE7EFE1522}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Move_x0020_File xmlns="fe09231f-29e9-4fcc-8d52-31ededd95bb0">false</Move_x0020_File>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33A387AC-8A99-451E-B27C-40485BA385A0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -73038,4 +73014,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28AFA5F5-9BF9-4C87-A4BC-A6BE7EFE1522}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1122C776-05D7-4941-A125-0B9D74F352A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="fe09231f-29e9-4fcc-8d52-31ededd95bb0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>